--- a/SchedulingData/dynamic11/pso/scheduling1_15.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_15.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.26</v>
+        <v>74.12</v>
       </c>
       <c r="E2" t="n">
-        <v>26.544</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>84.78</v>
+        <v>41.2</v>
       </c>
       <c r="E3" t="n">
-        <v>26.152</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50.9</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
-        <v>26.1</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50.9</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>115.12</v>
+        <v>102.8</v>
       </c>
       <c r="E5" t="n">
-        <v>21.788</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="6">
@@ -542,150 +542,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84.78</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>150.78</v>
+        <v>69.72</v>
       </c>
       <c r="E6" t="n">
-        <v>21.672</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>150.78</v>
+        <v>41.2</v>
       </c>
       <c r="D7" t="n">
-        <v>197.36</v>
+        <v>97.3</v>
       </c>
       <c r="E7" t="n">
-        <v>18.144</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>73.86</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>27.264</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>73.86</v>
+        <v>69.72</v>
       </c>
       <c r="D9" t="n">
-        <v>129.8</v>
+        <v>126.58</v>
       </c>
       <c r="E9" t="n">
-        <v>23.78</v>
+        <v>21.632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>102.8</v>
       </c>
       <c r="D10" t="n">
-        <v>56.7</v>
+        <v>153.1</v>
       </c>
       <c r="E10" t="n">
-        <v>25.52</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>97.3</v>
       </c>
       <c r="D11" t="n">
-        <v>77.8</v>
+        <v>153.4</v>
       </c>
       <c r="E11" t="n">
-        <v>27.36</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>56.26</v>
+        <v>153.1</v>
       </c>
       <c r="D12" t="n">
-        <v>128.22</v>
+        <v>199.6</v>
       </c>
       <c r="E12" t="n">
-        <v>22.488</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>77.8</v>
+        <v>199.6</v>
       </c>
       <c r="D13" t="n">
-        <v>147.28</v>
+        <v>260.46</v>
       </c>
       <c r="E13" t="n">
-        <v>23.512</v>
+        <v>10.684</v>
       </c>
     </row>
     <row r="14">
@@ -698,51 +698,51 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>147.28</v>
+        <v>74.12</v>
       </c>
       <c r="D14" t="n">
-        <v>208.12</v>
+        <v>105.16</v>
       </c>
       <c r="E14" t="n">
-        <v>21.048</v>
+        <v>23.324</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>115.12</v>
+        <v>126.58</v>
       </c>
       <c r="D15" t="n">
-        <v>154.02</v>
+        <v>200.18</v>
       </c>
       <c r="E15" t="n">
-        <v>19.028</v>
+        <v>16.892</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>208.12</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>270.94</v>
+        <v>127.1</v>
       </c>
       <c r="E16" t="n">
-        <v>17.856</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>129.8</v>
+        <v>153.4</v>
       </c>
       <c r="D17" t="n">
-        <v>200.2</v>
+        <v>206.42</v>
       </c>
       <c r="E17" t="n">
-        <v>20.36</v>
+        <v>14.428</v>
       </c>
     </row>
     <row r="18">
@@ -770,74 +770,74 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>200.2</v>
+        <v>206.42</v>
       </c>
       <c r="D18" t="n">
-        <v>256.6</v>
+        <v>292.36</v>
       </c>
       <c r="E18" t="n">
-        <v>16.84</v>
+        <v>10.944</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>256.6</v>
+        <v>127.1</v>
       </c>
       <c r="D19" t="n">
-        <v>324.92</v>
+        <v>179.06</v>
       </c>
       <c r="E19" t="n">
-        <v>12.628</v>
+        <v>19.024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>128.22</v>
+        <v>105.16</v>
       </c>
       <c r="D20" t="n">
-        <v>181.34</v>
+        <v>170.88</v>
       </c>
       <c r="E20" t="n">
-        <v>19.316</v>
+        <v>19.892</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>154.02</v>
+        <v>170.88</v>
       </c>
       <c r="D21" t="n">
-        <v>200.98</v>
+        <v>243.08</v>
       </c>
       <c r="E21" t="n">
-        <v>14.972</v>
+        <v>17.252</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>181.34</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>244.94</v>
+        <v>76.3</v>
       </c>
       <c r="E22" t="n">
-        <v>14.576</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="23">
@@ -865,112 +865,112 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>200.98</v>
+        <v>260.46</v>
       </c>
       <c r="D23" t="n">
-        <v>253.98</v>
+        <v>316.84</v>
       </c>
       <c r="E23" t="n">
-        <v>10.812</v>
+        <v>7.156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>56.7</v>
+        <v>76.3</v>
       </c>
       <c r="D24" t="n">
-        <v>122.32</v>
+        <v>134.6</v>
       </c>
       <c r="E24" t="n">
-        <v>22.088</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>122.32</v>
+        <v>134.6</v>
       </c>
       <c r="D25" t="n">
-        <v>176.72</v>
+        <v>205.08</v>
       </c>
       <c r="E25" t="n">
-        <v>17.288</v>
+        <v>18.852</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>176.72</v>
+        <v>205.08</v>
       </c>
       <c r="D26" t="n">
-        <v>267.72</v>
+        <v>266.78</v>
       </c>
       <c r="E26" t="n">
-        <v>12.808</v>
+        <v>15.772</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>267.72</v>
+        <v>266.78</v>
       </c>
       <c r="D27" t="n">
-        <v>334.82</v>
+        <v>316.56</v>
       </c>
       <c r="E27" t="n">
-        <v>9.728</v>
+        <v>11.924</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>253.98</v>
+        <v>179.06</v>
       </c>
       <c r="D28" t="n">
-        <v>326.28</v>
+        <v>238.74</v>
       </c>
       <c r="E28" t="n">
-        <v>7.172</v>
+        <v>15.176</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>197.36</v>
+        <v>200.18</v>
       </c>
       <c r="D29" t="n">
-        <v>258.24</v>
+        <v>248.1</v>
       </c>
       <c r="E29" t="n">
-        <v>15.196</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="30">
@@ -998,36 +998,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>270.94</v>
+        <v>243.08</v>
       </c>
       <c r="D30" t="n">
-        <v>334.24</v>
+        <v>286.64</v>
       </c>
       <c r="E30" t="n">
-        <v>14.136</v>
+        <v>14.516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>258.24</v>
+        <v>238.74</v>
       </c>
       <c r="D31" t="n">
-        <v>316.8</v>
+        <v>292.3</v>
       </c>
       <c r="E31" t="n">
-        <v>12.46</v>
+        <v>12.44</v>
       </c>
     </row>
   </sheetData>
